--- a/Load/ontology/Gates/SCORE_NEG/SCORE_NIG_Sh_XS_VariableMap.xlsx
+++ b/Load/ontology/Gates/SCORE_NEG/SCORE_NIG_Sh_XS_VariableMap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lindsabr\Desktop\Git\ApiCommonData\ApiCommonData\Load\ontology\Gates\SCORE_NEG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60C9C743-D09D-40A7-A8B6-2940129872AF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9528406D-5825-4026-9883-401229426843}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3111" yWindow="2340" windowWidth="26872" windowHeight="14074" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1054" yWindow="3514" windowWidth="22800" windowHeight="13012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCORE_CrossSect_VariableMap" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="149">
   <si>
     <t>codebookOrder</t>
   </si>
@@ -118,9 +118,6 @@
     <t>Village code</t>
   </si>
   <si>
-    <t>Village ID</t>
-  </si>
-  <si>
     <t>Administrative information</t>
   </si>
   <si>
@@ -142,18 +139,9 @@
     <t>Age</t>
   </si>
   <si>
-    <t>OBI_0001169</t>
-  </si>
-  <si>
     <t>Age in years</t>
   </si>
   <si>
-    <t>Observation</t>
-  </si>
-  <si>
-    <t>EUPATH_0000738</t>
-  </si>
-  <si>
     <t>Age (years)</t>
   </si>
   <si>
@@ -163,9 +151,6 @@
     <t>Age group</t>
   </si>
   <si>
-    <t>EUPATH_0010367</t>
-  </si>
-  <si>
     <t>Generated based on age: 5_8= 5-8 years old, 9_12= 9 to 12 years old, 20_55= 20 to 55 years old, Other= not in above age groups</t>
   </si>
   <si>
@@ -175,9 +160,6 @@
     <t>Sample</t>
   </si>
   <si>
-    <t>EUPATH_0011797</t>
-  </si>
-  <si>
     <t>.=Missing</t>
   </si>
   <si>
@@ -256,21 +238,12 @@
     <t>Sh_binary</t>
   </si>
   <si>
-    <t>Urine test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean Schistosoma haematobium eggs </t>
-  </si>
-  <si>
     <t>Mean Schistosoma haematobium eggs counted on the two filtrations of the urine sample</t>
   </si>
   <si>
     <t>Arithmetic mean of the two preceding variables.</t>
   </si>
   <si>
-    <t>Presence or absence of Schistosoma haematobium infection</t>
-  </si>
-  <si>
     <t>Presence or absence of Schistosoma haematobium infection in this study participant, based on detection of at least one egg in the urine sample.</t>
   </si>
   <si>
@@ -310,18 +283,9 @@
     <t>NIG=Niger</t>
   </si>
   <si>
-    <t>Niger treatment</t>
-  </si>
-  <si>
     <t>Treatment: annual or biannual after study redesign</t>
   </si>
   <si>
-    <t>Study group</t>
-  </si>
-  <si>
-    <t>Treatment frequency</t>
-  </si>
-  <si>
     <t xml:space="preserve">CWT once= communitywide treatment once a year; CWT twice= communitywide treatment twice a year; SBT once= school-based treatment once a year; SBT twice= school-based treatment twice a year. </t>
   </si>
   <si>
@@ -373,20 +337,143 @@
     <t>EUPATH_0030033</t>
   </si>
   <si>
-    <t>Year of study village was surveyed.</t>
-  </si>
-  <si>
     <t>village_study_year</t>
   </si>
   <si>
     <t>variable, derived</t>
+  </si>
+  <si>
+    <t>EUPATH_0030016</t>
+  </si>
+  <si>
+    <t>EUPATH_0030019</t>
+  </si>
+  <si>
+    <t>EUPATH_0030017</t>
+  </si>
+  <si>
+    <t>Number of school-age children treated in village</t>
+  </si>
+  <si>
+    <t>EUPATH_0030018</t>
+  </si>
+  <si>
+    <t>Percent school-age children treated in village</t>
+  </si>
+  <si>
+    <t>Number of school-age children (SAC) in village, second treatment</t>
+  </si>
+  <si>
+    <t>Percent school-age children treated in village, second treatment</t>
+  </si>
+  <si>
+    <t>Total population treated in village</t>
+  </si>
+  <si>
+    <t>Percent total population treated in village</t>
+  </si>
+  <si>
+    <t>EUPATH_0030021</t>
+  </si>
+  <si>
+    <t>EUPATH_0030020</t>
+  </si>
+  <si>
+    <t>Total population treated in village, second treatment</t>
+  </si>
+  <si>
+    <t>Percent total population treated in village, second treatment</t>
+  </si>
+  <si>
+    <t>Schistosoma haematobium (per 10 ml), by microscopy</t>
+  </si>
+  <si>
+    <t>EUPATH_0030124</t>
+  </si>
+  <si>
+    <t>Schistosoma haematobium, by microscopy</t>
+  </si>
+  <si>
+    <t>EUPATH_0030123</t>
+  </si>
+  <si>
+    <t>Schistosoma in urine</t>
+  </si>
+  <si>
+    <t>EUPATH_0030122</t>
+  </si>
+  <si>
+    <t>EUPATH_0030022</t>
+  </si>
+  <si>
+    <t>Age group at enrollment</t>
+  </si>
+  <si>
+    <t>EUPATH_0000120</t>
+  </si>
+  <si>
+    <t>Age at enrollment</t>
+  </si>
+  <si>
+    <t>Particpant study details</t>
+  </si>
+  <si>
+    <t>EUPATH_0030001</t>
+  </si>
+  <si>
+    <t>EUPATH_0030002</t>
+  </si>
+  <si>
+    <t>EUPATH_0030003</t>
+  </si>
+  <si>
+    <t>EUPATH_0030004</t>
+  </si>
+  <si>
+    <t>EUPATH_0030005</t>
+  </si>
+  <si>
+    <t>EUPATH_0030006</t>
+  </si>
+  <si>
+    <t>EUPATH_0030007</t>
+  </si>
+  <si>
+    <t>EUPATH_0030008</t>
+  </si>
+  <si>
+    <t>EUPATH_0030009</t>
+  </si>
+  <si>
+    <t>EUPATH_0030010</t>
+  </si>
+  <si>
+    <t>GPS coordinates (latitude and longitude) of schools for each village</t>
+  </si>
+  <si>
+    <t>Study type</t>
+  </si>
+  <si>
+    <t>Study arm</t>
+  </si>
+  <si>
+    <t>EUPATH_0015457</t>
+  </si>
+  <si>
+    <t>EUPATH_0010035</t>
+  </si>
+  <si>
+    <t>Year study village was surveyed</t>
+  </si>
+  <si>
+    <t>Treatment frequency: either annual or biannual after study redesign</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -518,6 +605,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1285,7 +1378,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M4" sqref="M4"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1295,9 +1388,9 @@
     <col min="3" max="3" width="6.765625" style="2" customWidth="1"/>
     <col min="4" max="4" width="30.53515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="13.765625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18" style="2" customWidth="1"/>
+    <col min="6" max="6" width="43.61328125" style="2" customWidth="1"/>
     <col min="7" max="7" width="20" style="2" customWidth="1"/>
-    <col min="8" max="8" width="34.4609375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="51.53515625" style="2" customWidth="1"/>
     <col min="9" max="9" width="10.84375" style="2" customWidth="1"/>
     <col min="10" max="10" width="16.4609375" style="2" customWidth="1"/>
     <col min="11" max="11" width="9.23046875" style="2"/>
@@ -1358,19 +1451,19 @@
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>20</v>
@@ -1382,7 +1475,7 @@
         <v>29</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -1399,7 +1492,7 @@
         <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>25</v>
@@ -1426,7 +1519,7 @@
         <v>28</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
@@ -1438,33 +1531,37 @@
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G4" s="1"/>
+        <v>144</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="H4" s="1" t="s">
-        <v>99</v>
+        <v>148</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="L4" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
@@ -1476,33 +1573,37 @@
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G5" s="1"/>
+        <v>143</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="H5" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="L5" s="1" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
@@ -1519,14 +1620,16 @@
         <v>30</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="H6" s="1" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>20</v>
@@ -1538,7 +1641,7 @@
         <v>22</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -1554,18 +1657,20 @@
         <v>2</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H7" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="I7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1576,7 +1681,7 @@
         <v>22</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -1592,18 +1697,20 @@
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H8" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="I8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1614,7 +1721,7 @@
         <v>22</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -1628,31 +1735,37 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+        <v>102</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="H9" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K9" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="L9" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
@@ -1664,28 +1777,34 @@
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+        <v>102</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="H10" s="1" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K10" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="L10" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="N10" s="1"/>
     </row>
@@ -1698,25 +1817,31 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+        <v>102</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="H11" s="1" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K11" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="L11" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -1730,25 +1855,29 @@
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F12" s="1"/>
+        <v>102</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K12" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="L12" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -1762,25 +1891,29 @@
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K13" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="L13" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -1794,25 +1927,31 @@
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+        <v>102</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="H14" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K14" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="L14" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -1826,25 +1965,31 @@
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+        <v>102</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="H15" s="1" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K15" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="L15" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -1858,25 +2003,31 @@
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+        <v>102</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="H16" s="1" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="L16" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -1890,25 +2041,29 @@
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F17" s="1"/>
+        <v>102</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K17" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="L17" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -1922,25 +2077,29 @@
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F18" s="1"/>
+        <v>102</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="L18" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -1954,34 +2113,34 @@
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="H19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="L19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M19" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="N19" s="1"/>
     </row>
@@ -1994,31 +2153,31 @@
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -2032,37 +2191,37 @@
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="K21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L21" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="M21" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.4">
@@ -2074,33 +2233,37 @@
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+        <v>102</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="H22" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.4">
@@ -2112,33 +2275,37 @@
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+        <v>102</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="H23" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.4">
@@ -2151,7 +2318,7 @@
         <v>17</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>18</v>
@@ -2160,7 +2327,7 @@
         <v>19</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>20</v>
@@ -2175,7 +2342,7 @@
         <v>23</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="N24" s="1"/>
     </row>
@@ -2195,6 +2362,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N28">
     <sortCondition ref="B2:B28"/>
   </sortState>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
